--- a/Cisco IOS - Axon.xlsx
+++ b/Cisco IOS - Axon.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushagra.sharma\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39C030F9-45B6-46D6-9F18-BFE7FA6D1495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Title Page" sheetId="3" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="126">
   <si>
     <t>Vendor Documentation Link</t>
   </si>
@@ -1055,9 +1056,6 @@
 </t>
   </si>
   <si>
-    <t>&lt;187&gt;60266365: Aug  8 19:38:48.495: %ADJ-3-RESOLVE_REQ: Adj resolve request: Failed to resolve 10.1.1.1 GigabitEthernet0/1</t>
-  </si>
-  <si>
     <t>Changed mapping from "origin.host.ip_address.value" to "origin.host.mac_address" in "Description Types" sheet against Facility Code C4K.</t>
   </si>
   <si>
@@ -1284,7 +1282,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1454,7 +1452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1494,17 +1492,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1852,20 +1840,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
@@ -1873,184 +1861,184 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="26"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="24" t="s">
+      <c r="B6" s="22"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
         <v>45163</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="25">
+    <row r="9" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
         <v>45168</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="25">
+    <row r="10" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
         <v>45168</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
+        <v>45170</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="25">
+    <row r="12" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
         <v>45170</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B12" s="17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="25">
+    <row r="13" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
         <v>45170</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A13" s="25">
+      <c r="B13" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
         <v>45170</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A14" s="25">
+      <c r="B14" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="21">
         <v>45170</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B15" s="17" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="25">
-        <v>45170</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="25">
+    <row r="16" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
         <v>45174</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="10"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="10"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="10"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="10"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="10"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="10"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="10"/>
     </row>
   </sheetData>
@@ -2058,29 +2046,29 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" style="10" customWidth="1"/>
-    <col min="2" max="3" width="40.83203125" customWidth="1"/>
-    <col min="4" max="5" width="35.83203125" customWidth="1"/>
-    <col min="6" max="6" width="40.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.796875" style="10" customWidth="1"/>
+    <col min="2" max="3" width="40.796875" customWidth="1"/>
+    <col min="4" max="5" width="35.796875" customWidth="1"/>
+    <col min="6" max="6" width="40.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>28</v>
       </c>
@@ -2088,7 +2076,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
@@ -2096,7 +2084,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>30</v>
       </c>
@@ -2104,12 +2092,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2125,7 +2113,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
       <c r="C7" s="3"/>
@@ -2133,7 +2121,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
       <c r="C8" s="3"/>
@@ -2141,7 +2129,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2153,7 +2141,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -2161,7 +2149,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -2169,7 +2157,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -2179,7 +2167,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -2189,7 +2177,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -2197,7 +2185,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -2205,7 +2193,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -2217,7 +2205,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -2229,7 +2217,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -2241,7 +2229,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -2253,7 +2241,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -2261,7 +2249,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -2269,7 +2257,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -2281,7 +2269,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -2289,7 +2277,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -2301,7 +2289,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -2309,7 +2297,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -2317,12 +2305,12 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>75</v>
@@ -2335,7 +2323,7 @@
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="4" t="s">
         <v>77</v>
@@ -2351,7 +2339,7 @@
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
@@ -2359,7 +2347,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2367,16 +2355,16 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="27" t="s">
+    <row r="31" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>5</v>
       </c>
@@ -2391,7 +2379,7 @@
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>34</v>
       </c>
@@ -2404,7 +2392,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="8" t="s">
         <v>36</v>
@@ -2417,7 +2405,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>37</v>
       </c>
@@ -2432,7 +2420,7 @@
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>43</v>
       </c>
@@ -2445,7 +2433,7 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="186" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>39</v>
       </c>
@@ -2460,7 +2448,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>41</v>
       </c>
@@ -2475,7 +2463,7 @@
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>44</v>
       </c>
@@ -2490,7 +2478,7 @@
       </c>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2498,7 +2486,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2506,17 +2494,17 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="27" t="s">
+    <row r="42" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="29"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="25"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>7</v>
       </c>
@@ -2536,7 +2524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>0</v>
       </c>
@@ -2548,7 +2536,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>1</v>
       </c>
@@ -2560,7 +2548,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>2</v>
       </c>
@@ -2572,7 +2560,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>3</v>
       </c>
@@ -2584,7 +2572,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>4</v>
       </c>
@@ -2596,7 +2584,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>5</v>
       </c>
@@ -2608,7 +2596,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>6</v>
       </c>
@@ -2620,7 +2608,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>7</v>
       </c>
@@ -2633,20 +2621,20 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A43:F51"/>
+  <autoFilter ref="A43:F51" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="A31:D31"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"JSON,XML,CEF,LEEF,Key-Value Pairs,Delimited,Limited Structure"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" location="wp1030180"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId1" location="wp1030180" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -2654,22 +2642,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.4140625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="57.9140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="30" style="16" customWidth="1"/>
-    <col min="4" max="4" width="107.9140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3984375" customWidth="1"/>
+    <col min="2" max="2" width="57.8984375" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="107.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>48</v>
       </c>
@@ -2679,149 +2667,147 @@
       <c r="C1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="93" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="62" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="62" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="62" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="62" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="8" t="s">
         <v>90</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>114</v>
-      </c>
+      <c r="D11" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
